--- a/result/with_base/123/arousal/s13_0.xlsx
+++ b/result/with_base/123/arousal/s13_0.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9553571343421936</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8449999988079071</v>
+        <v>0.7667410671710968</v>
       </c>
       <c r="C2" t="n">
-        <v>41741.74609375</v>
+        <v>11312.23974609375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8638636415654962</v>
+        <v>0.7765231097445768</v>
       </c>
       <c r="E2" t="n">
-        <v>41737.42116477273</v>
+        <v>11312.0107421875</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8524999916553497</v>
+        <v>0.8744419515132904</v>
       </c>
       <c r="C3" t="n">
-        <v>40964.4296875</v>
+        <v>11017.78125</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8954545422033831</v>
+        <v>0.8814338235294118</v>
       </c>
       <c r="E3" t="n">
-        <v>40961.61434659091</v>
+        <v>11016.337890625</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9025000035762787</v>
+        <v>0.8705357015132904</v>
       </c>
       <c r="C4" t="n">
-        <v>40197.482421875</v>
+        <v>10725.35498046875</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9198863723061301</v>
+        <v>0.8937106097445768</v>
       </c>
       <c r="E4" t="n">
-        <v>40194.68039772727</v>
+        <v>10723.77085248162</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8924999833106995</v>
+        <v>0.87890625</v>
       </c>
       <c r="C5" t="n">
-        <v>39440.6875</v>
+        <v>10436.521484375</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9348863580010154</v>
+        <v>0.895089286215165</v>
       </c>
       <c r="E5" t="n">
-        <v>39437.27769886364</v>
+        <v>10435.13275505515</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9099999964237213</v>
+        <v>0.8956473171710968</v>
       </c>
       <c r="C6" t="n">
-        <v>38691.328125</v>
+        <v>10151.4228515625</v>
       </c>
       <c r="D6" t="n">
-        <v>0.951590895652771</v>
+        <v>0.9216780452167287</v>
       </c>
       <c r="E6" t="n">
-        <v>38687.99609375</v>
+        <v>10150.06927849265</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9050000011920929</v>
+        <v>0.9001116156578064</v>
       </c>
       <c r="C7" t="n">
-        <v>37954.669921875</v>
+        <v>9872.4501953125</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9546590826728127</v>
+        <v>0.9402573529411765</v>
       </c>
       <c r="E7" t="n">
-        <v>37951.13139204546</v>
+        <v>9870.950022977941</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9124999940395355</v>
+        <v>0.9040178656578064</v>
       </c>
       <c r="C8" t="n">
-        <v>37228.3828125</v>
+        <v>9598.77783203125</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9594318162311207</v>
+        <v>0.9550945373142466</v>
       </c>
       <c r="E8" t="n">
-        <v>37224.76669034091</v>
+        <v>9597.644186580883</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9123883843421936</v>
       </c>
       <c r="C9" t="n">
-        <v>36512.162109375</v>
+        <v>9332.13623046875</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9765909205783497</v>
+        <v>0.9558823529411765</v>
       </c>
       <c r="E9" t="n">
-        <v>36509.80007102273</v>
+        <v>9330.805893841913</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9149999916553497</v>
+        <v>0.9090401828289032</v>
       </c>
       <c r="C10" t="n">
-        <v>35810.9921875</v>
+        <v>9071.9775390625</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9689772725105286</v>
+        <v>0.9452468472368577</v>
       </c>
       <c r="E10" t="n">
-        <v>35807.89524147727</v>
+        <v>9070.352883731617</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9375</v>
+        <v>0.8995535671710968</v>
       </c>
       <c r="C11" t="n">
-        <v>35119.037109375</v>
+        <v>8816.72705078125</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9827272891998291</v>
+        <v>0.9534532568034004</v>
       </c>
       <c r="E11" t="n">
-        <v>35117.19566761364</v>
+        <v>8815.401999080883</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9175000190734863</v>
+        <v>0.9129464328289032</v>
       </c>
       <c r="C12" t="n">
-        <v>34441.73828125</v>
+        <v>8568.19580078125</v>
       </c>
       <c r="D12" t="n">
-        <v>0.978295461698012</v>
+        <v>0.9552914920975181</v>
       </c>
       <c r="E12" t="n">
-        <v>34438.92933238636</v>
+        <v>8566.625459558823</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9375</v>
+        <v>0.9090401828289032</v>
       </c>
       <c r="C13" t="n">
-        <v>33773.828125</v>
+        <v>8325.33544921875</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9853409203616056</v>
+        <v>0.9639574569814345</v>
       </c>
       <c r="E13" t="n">
-        <v>33772.06569602273</v>
+        <v>8324.003389246323</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.925000011920929</v>
+        <v>0.92578125</v>
       </c>
       <c r="C14" t="n">
-        <v>33119.28125</v>
+        <v>8088.443603515625</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9830681898377158</v>
+        <v>0.9759716391563416</v>
       </c>
       <c r="E14" t="n">
-        <v>33117.29332386364</v>
+        <v>8087.262896369485</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.9302455484867096</v>
       </c>
       <c r="C15" t="n">
-        <v>32476.13671875</v>
+        <v>7857.679443359375</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9814772822640159</v>
+        <v>0.9754464275696698</v>
       </c>
       <c r="E15" t="n">
-        <v>32474.15997869318</v>
+        <v>7856.588005514706</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9246651828289032</v>
       </c>
       <c r="C16" t="n">
-        <v>31843.849609375</v>
+        <v>7632.894287109375</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9909090995788574</v>
+        <v>0.9743960079024819</v>
       </c>
       <c r="E16" t="n">
-        <v>31842.08487215909</v>
+        <v>7631.743623621323</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9275000095367432</v>
+        <v>0.9296875</v>
       </c>
       <c r="C17" t="n">
-        <v>31224.5283203125</v>
+        <v>7413.416748046875</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9831818342208862</v>
+        <v>0.9870010509210474</v>
       </c>
       <c r="E17" t="n">
-        <v>31221.91068892046</v>
+        <v>7412.368997012868</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9302455484867096</v>
       </c>
       <c r="C18" t="n">
-        <v>30613.9052734375</v>
+        <v>7199.937744140625</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9940909147262573</v>
+        <v>0.9814206922755522</v>
       </c>
       <c r="E18" t="n">
-        <v>30612.45436789773</v>
+        <v>7198.8916015625</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9199999868869781</v>
+        <v>0.92578125</v>
       </c>
       <c r="C19" t="n">
-        <v>30017.01953125</v>
+        <v>6991.9755859375</v>
       </c>
       <c r="D19" t="n">
-        <v>0.985909104347229</v>
+        <v>0.9781381312538596</v>
       </c>
       <c r="E19" t="n">
-        <v>30014.78764204546</v>
+        <v>6990.819393382353</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9380580484867096</v>
       </c>
       <c r="C20" t="n">
-        <v>29428.9248046875</v>
+        <v>6789.239013671875</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9926136406985197</v>
+        <v>0.9847032568034004</v>
       </c>
       <c r="E20" t="n">
-        <v>29427.74573863636</v>
+        <v>6788.166044347427</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C21" t="n">
-        <v>28853.4560546875</v>
+        <v>6591.700439453125</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9907954606142911</v>
+        <v>0.9787289920975181</v>
       </c>
       <c r="E21" t="n">
-        <v>28851.61221590909</v>
+        <v>6590.77987132353</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9302455484867096</v>
       </c>
       <c r="C22" t="n">
-        <v>28287.650390625</v>
+        <v>6399.351806640625</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9940909147262573</v>
+        <v>0.9852941176470589</v>
       </c>
       <c r="E22" t="n">
-        <v>28285.83043323864</v>
+        <v>6398.539694393382</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9380580484867096</v>
       </c>
       <c r="C23" t="n">
-        <v>27732.1416015625</v>
+        <v>6212.023193359375</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.9935005237074459</v>
       </c>
       <c r="E23" t="n">
-        <v>27730.49485085227</v>
+        <v>6211.314481847427</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9174999892711639</v>
+        <v>0.9380580484867096</v>
       </c>
       <c r="C24" t="n">
-        <v>27187.5380859375</v>
+        <v>6029.725341796875</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9870454614812677</v>
+        <v>0.9925157568034004</v>
       </c>
       <c r="E24" t="n">
-        <v>27185.56036931818</v>
+        <v>6029.097397748162</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9425223171710968</v>
       </c>
       <c r="C25" t="n">
-        <v>26651.828125</v>
+        <v>5852.46826171875</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.987985817825093</v>
       </c>
       <c r="E25" t="n">
-        <v>26650.50639204546</v>
+        <v>5851.762350643382</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9436383843421936</v>
       </c>
       <c r="C26" t="n">
-        <v>26127.5830078125</v>
+        <v>5679.756103515625</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9881818294525146</v>
+        <v>0.9948135509210474</v>
       </c>
       <c r="E26" t="n">
-        <v>26125.62180397727</v>
+        <v>5679.088895909927</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9425223171710968</v>
       </c>
       <c r="C27" t="n">
-        <v>25611.15625</v>
+        <v>5511.686279296875</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9944852941176471</v>
       </c>
       <c r="E27" t="n">
-        <v>25610.20667613636</v>
+        <v>5511.069278492647</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C28" t="n">
-        <v>25105.6875</v>
+        <v>5348.018798828125</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.9931066176470589</v>
       </c>
       <c r="E28" t="n">
-        <v>25104.52805397727</v>
+        <v>5347.527975643382</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.949999988079071</v>
+        <v>0.92578125</v>
       </c>
       <c r="C29" t="n">
-        <v>24608.8955078125</v>
+        <v>5189.0625</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9860819332739886</v>
       </c>
       <c r="E29" t="n">
-        <v>24608.23029119318</v>
+        <v>5188.44677734375</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9425223171710968</v>
       </c>
       <c r="C30" t="n">
-        <v>24122.0908203125</v>
+        <v>5034.048583984375</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9979545474052429</v>
+        <v>0.9949448529411765</v>
       </c>
       <c r="E30" t="n">
-        <v>24121.16956676136</v>
+        <v>5033.567181755515</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.93359375</v>
       </c>
       <c r="C31" t="n">
-        <v>23644.380859375</v>
+        <v>4883.408203125</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9964772733775052</v>
+        <v>0.9944852941176471</v>
       </c>
       <c r="E31" t="n">
-        <v>23643.26935369318</v>
+        <v>4882.91366038603</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9425223171710968</v>
       </c>
       <c r="C32" t="n">
-        <v>23175.1923828125</v>
+        <v>4736.84423828125</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9989772709933195</v>
+        <v>0.9912027295897988</v>
       </c>
       <c r="E32" t="n">
-        <v>23174.22372159091</v>
+        <v>4736.36270680147</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.925000011920929</v>
+        <v>0.9386160671710968</v>
       </c>
       <c r="C33" t="n">
-        <v>22715.484375</v>
+        <v>4594.289794921875</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9905681881037626</v>
+        <v>0.9944196413545048</v>
       </c>
       <c r="E33" t="n">
-        <v>22714.02769886364</v>
+        <v>4593.781996783088</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9430803656578064</v>
       </c>
       <c r="C34" t="n">
-        <v>22263.0126953125</v>
+        <v>4455.490966796875</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9970454573631287</v>
+        <v>0.9981617647058824</v>
       </c>
       <c r="E34" t="n">
-        <v>22262.31285511364</v>
+        <v>4455.091078814338</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9425223171710968</v>
       </c>
       <c r="C35" t="n">
-        <v>21819.779296875</v>
+        <v>4320.79150390625</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9976136359301481</v>
+        <v>0.9889705882352942</v>
       </c>
       <c r="E35" t="n">
-        <v>21819.09836647727</v>
+        <v>4320.255141314338</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9252232015132904</v>
       </c>
       <c r="C36" t="n">
-        <v>21385.076171875</v>
+        <v>4189.6396484375</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9976136359301481</v>
+        <v>0.9921875</v>
       </c>
       <c r="E36" t="n">
-        <v>21384.20010653409</v>
+        <v>4189.077004825368</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9199999868869781</v>
+        <v>0.9469866156578064</v>
       </c>
       <c r="C37" t="n">
-        <v>20958.619140625</v>
+        <v>4061.932861328125</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9930409648839165</v>
       </c>
       <c r="E37" t="n">
-        <v>20957.42933238636</v>
+        <v>4061.503446691177</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C38" t="n">
-        <v>20539.5126953125</v>
+        <v>3937.96484375</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9944318207827482</v>
+        <v>0.9948792001780342</v>
       </c>
       <c r="E38" t="n">
-        <v>20538.67720170454</v>
+        <v>3937.48677332261</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9275000095367432</v>
+        <v>0.9503348171710968</v>
       </c>
       <c r="C39" t="n">
-        <v>20128.6044921875</v>
+        <v>3817.224853515625</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9967174354721519</v>
       </c>
       <c r="E39" t="n">
-        <v>20127.73952414773</v>
+        <v>3816.866383272059</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9592633843421936</v>
       </c>
       <c r="C40" t="n">
-        <v>19725.482421875</v>
+        <v>3699.897583007812</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9935227307406339</v>
+        <v>0.9948135509210474</v>
       </c>
       <c r="E40" t="n">
-        <v>19724.55877130682</v>
+        <v>3699.611457375919</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9587053656578064</v>
       </c>
       <c r="C41" t="n">
-        <v>19329.69140625</v>
+        <v>3585.963256835938</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9911370803328121</v>
       </c>
       <c r="E41" t="n">
-        <v>19328.87411221591</v>
+        <v>3585.657441980698</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.93359375</v>
       </c>
       <c r="C42" t="n">
-        <v>18941.73828125</v>
+        <v>3475.31689453125</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9953409108248624</v>
+        <v>0.9921875</v>
       </c>
       <c r="E42" t="n">
-        <v>18940.68625710227</v>
+        <v>3474.886804917279</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C43" t="n">
-        <v>18560.4619140625</v>
+        <v>3367.602905273438</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9917279411764706</v>
       </c>
       <c r="E43" t="n">
-        <v>18559.78995028409</v>
+        <v>3367.201602711397</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.9263392984867096</v>
       </c>
       <c r="C44" t="n">
-        <v>18187.0458984375</v>
+        <v>3262.995483398438</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9935227307406339</v>
+        <v>0.9812237409984365</v>
       </c>
       <c r="E44" t="n">
-        <v>18186.15909090909</v>
+        <v>3262.566736557904</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9199999868869781</v>
+        <v>0.9592633843421936</v>
       </c>
       <c r="C45" t="n">
-        <v>17820.1103515625</v>
+        <v>3161.091064453125</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9962500008669767</v>
+        <v>0.9954044117647058</v>
       </c>
       <c r="E45" t="n">
-        <v>17819.48135653409</v>
+        <v>3160.793658088235</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9341517984867096</v>
       </c>
       <c r="C46" t="n">
-        <v>17460.412109375</v>
+        <v>3062.342407226562</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9847032568034004</v>
       </c>
       <c r="E46" t="n">
-        <v>17459.75568181818</v>
+        <v>3061.980669806985</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9587053656578064</v>
       </c>
       <c r="C47" t="n">
-        <v>17107.4296875</v>
+        <v>2966.099243164062</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9961265746284934</v>
       </c>
       <c r="E47" t="n">
-        <v>17106.81480823864</v>
+        <v>2965.867316750919</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9508928656578064</v>
       </c>
       <c r="C48" t="n">
-        <v>16761.224609375</v>
+        <v>2872.787475585938</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9967830882352942</v>
       </c>
       <c r="E48" t="n">
-        <v>16760.54172585227</v>
+        <v>2872.525907628677</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9375</v>
+        <v>0.9129464328289032</v>
       </c>
       <c r="C49" t="n">
-        <v>16421.328125</v>
+        <v>2782.257568359375</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9738051470588235</v>
       </c>
       <c r="E49" t="n">
-        <v>16420.76704545454</v>
+        <v>2781.904110179228</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9425223171710968</v>
       </c>
       <c r="C50" t="n">
-        <v>16087.7822265625</v>
+        <v>2694.023803710938</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.9940257352941176</v>
       </c>
       <c r="E50" t="n">
-        <v>16087.44921875</v>
+        <v>2693.745418772978</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,894 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9553571343421936</v>
       </c>
       <c r="C51" t="n">
-        <v>15761.29443359375</v>
+        <v>2608.40576171875</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9948863658038053</v>
+        <v>0.9926470588235294</v>
       </c>
       <c r="E51" t="n">
-        <v>15760.4755859375</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15440.28662109375</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15439.65909090909</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9249999821186066</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15125.9775390625</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15124.91139914773</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9399999976158142</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14816.83154296875</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14816.15367542614</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14513.72314453125</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9971590909090909</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14513.25710227273</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9325000047683716</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14216.96240234375</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9905681881037626</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14216.16033380682</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13925.03271484375</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13924.64186789773</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9399999976158142</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13639.23046875</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13638.70427911932</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13358.4697265625</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13358.21635298295</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9474999904632568</v>
-      </c>
-      <c r="C60" t="n">
-        <v>13083.7490234375</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9897727370262146</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13083.12162642045</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12813.35546875</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12813.18039772727</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12548.86865234375</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12548.43634588068</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9350000023841858</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12289.2587890625</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9962500008669767</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12288.76518110795</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C64" t="n">
-        <v>12034.46240234375</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E64" t="n">
-        <v>12034.06383167614</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11784.57568359375</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11784.25168678977</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11539.42333984375</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11539.20685369318</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9399999976158142</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11299.0751953125</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11298.87082741477</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C68" t="n">
-        <v>11063.5439453125</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E68" t="n">
-        <v>11063.16983309659</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10832.34375</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9970454573631287</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10831.9912109375</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9399999976158142</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10605.5283203125</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10605.25071022727</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10383.02587890625</v>
-      </c>
-      <c r="D71" t="n">
-        <v>1</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10382.88006036932</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10165.19140625</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10164.81693892045</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9951.1806640625</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9950.968128551136</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9741.5498046875</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9741.267311789772</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9535.99072265625</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9994318160143766</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9535.622247869318</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9350000023841858</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9334.45166015625</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9333.959694602272</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9136.5087890625</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9136.208451704546</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8942.66259765625</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8942.32137784091</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8752.4736328125</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8752.207208806818</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8565.97314453125</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8565.798117897728</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8383.3857421875</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9944318207827482</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8383.046519886364</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9908151549942594</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9908151549942594</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.6410256410256411</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.004975124378109453</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9908151549942594</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.6410256410256411</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.004975124378109453</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9908151549942594</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7435897435897436</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.009950248756218905</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9908151549942594</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.7435897435897436</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.009950248756218905</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9908151549942594</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8461538461538461</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.01990049751243781</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9908151549942594</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8461538461538461</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.01990049751243781</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9908151549942594</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9487179487179487</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.07960199004975124</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9908151549942594</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9487179487179487</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.07960199004975124</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9908151549942594</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9743589743589743</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.1393034825870647</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9908151549942594</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9743589743589743</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.1393034825870647</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9908151549942594</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9908151549942594</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9798443679040694</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0.02564102564102564</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9798443679040694</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8656716417910447</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.02564102564102564</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9798443679040694</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8805970149253731</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.02564102564102564</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9798443679040694</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.900497512437811</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.02564102564102564</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9798443679040694</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9104477611940298</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.02564102564102564</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9798443679040694</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9203980099502488</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.05128205128205128</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9798443679040694</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9203980099502488</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.05128205128205128</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9798443679040694</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9800995024875622</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9798443679040694</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9800995024875622</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9798443679040694</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9900497512437811</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.2564102564102564</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9798443679040694</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9900497512437811</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.2564102564102564</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9798443679040694</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9950248756218906</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.358974358974359</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9798443679040694</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9950248756218906</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>0.358974358974359</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9798443679040694</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.9798443679040694</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
+        <v>2608.153822954963</v>
       </c>
     </row>
   </sheetData>
